--- a/Food/Food.xlsx
+++ b/Food/Food.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\Semester 6\GT Project\Diseases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,67 +26,59 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>https://influencermarketinghub.com/best-food-blogs/#toc-0</t>
-  </si>
-  <si>
-    <t>https://influencermarketinghub.com/best-food-blogs/#toc-1</t>
-  </si>
-  <si>
-    <t>https://influencermarketinghub.com/best-food-blogs/#toc-2</t>
-  </si>
-  <si>
-    <t>https://influencermarketinghub.com/best-food-blogs/#toc-3</t>
-  </si>
-  <si>
-    <t>https://influencermarketinghub.com/best-food-blogs/#toc-4</t>
-  </si>
-  <si>
-    <t>https://influencermarketinghub.com/best-food-blogs/#toc-5</t>
-  </si>
-  <si>
-    <t>https://influencermarketinghub.com/best-food-blogs/#toc-6</t>
-  </si>
-  <si>
-    <t>https://influencermarketinghub.com/best-food-blogs/#toc-7</t>
-  </si>
-  <si>
-    <t>https://influencermarketinghub.com/best-food-blogs/#toc-8</t>
-  </si>
-  <si>
-    <t>https://influencermarketinghub.com/best-food-blogs/#toc-9</t>
-  </si>
-  <si>
-    <t>https://influencermarketinghub.com/best-food-blogs/#toc-10</t>
-  </si>
-  <si>
-    <t>https://influencermarketinghub.com/best-food-blogs/#toc-11</t>
-  </si>
-  <si>
-    <t>https://influencermarketinghub.com/best-food-blogs/#toc-12</t>
-  </si>
-  <si>
-    <t>https://influencermarketinghub.com/best-food-blogs/#toc-13</t>
-  </si>
-  <si>
-    <t>https://influencermarketinghub.com/best-food-blogs/#toc-14</t>
+    <t>https://smittenkitchen.com/2022/10/apple-and-cheddar-crisp-salad/</t>
+  </si>
+  <si>
+    <t>https://smittenkitchen.com/2022/09/apple-dumplings/</t>
+  </si>
+  <si>
+    <t>https://smittenkitchen.com/2021/10/big-apple-crumb-cake/</t>
+  </si>
+  <si>
+    <t>https://smittenkitchen.com/2020/10/morning-glory-breakfast-cake/</t>
+  </si>
+  <si>
+    <t>https://smittenkitchen.com/2019/11/perfect-apple-tarte-tatin/</t>
+  </si>
+  <si>
+    <t>https://smittenkitchen.com/2018/10/even-more-perfect-apple-pie/</t>
+  </si>
+  <si>
+    <t>https://smittenkitchen.com/2017/12/dutch-apple-pie/</t>
+  </si>
+  <si>
+    <t>https://smittenkitchen.com/2016/11/brussels-sprouts-apple-and-pomegranate-salad/</t>
+  </si>
+  <si>
+    <t>https://smittenkitchen.com/2016/11/apple-strudel/</t>
+  </si>
+  <si>
+    <t>https://smittenkitchen.com/2016/09/magic-apple-plum-cobbler/</t>
+  </si>
+  <si>
+    <t>https://smittenkitchen.com/2015/11/apple-cider-sangria/</t>
+  </si>
+  <si>
+    <t>https://smittenkitchen.com/2014/09/sunken-apple-and-honey-cake/</t>
+  </si>
+  <si>
+    <t>https://smittenkitchen.com/2013/11/apple-and-herb-stuffing-for-all-seasons/</t>
+  </si>
+  <si>
+    <t>https://smittenkitchen.com/2013/10/apple-slab-pie/</t>
+  </si>
+  <si>
+    <t>https://smittenkitchen.com/2012/10/apple-mosaic-tart-with-salted-caramel/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,16 +101,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,43 +388,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="85.5546875" customWidth="1"/>
+    <col min="1" max="1" width="87.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -444,62 +433,46 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" location="toc-0"/>
-    <hyperlink ref="A2" r:id="rId2" location="toc-1"/>
-    <hyperlink ref="A3" r:id="rId3" location="toc-2"/>
-    <hyperlink ref="A4" r:id="rId4" location="toc-3"/>
-    <hyperlink ref="A5" r:id="rId5" location="toc-4"/>
-    <hyperlink ref="A6" r:id="rId6" location="toc-5"/>
-    <hyperlink ref="A8" r:id="rId7" location="toc-7"/>
-    <hyperlink ref="A9" r:id="rId8" location="toc-8"/>
-    <hyperlink ref="A10" r:id="rId9" location="toc-9"/>
-    <hyperlink ref="A11" r:id="rId10" location="toc-10"/>
-    <hyperlink ref="A12" r:id="rId11" location="toc-11"/>
-    <hyperlink ref="A13" r:id="rId12" location="toc-12"/>
-    <hyperlink ref="A14" r:id="rId13" location="toc-13"/>
-    <hyperlink ref="A15" r:id="rId14" location="toc-14"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>